--- a/ohrana/ohrana truda.xlsx
+++ b/ohrana/ohrana truda.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Длина светильника</t>
   </si>
@@ -192,15 +192,6 @@
     </r>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>3-4,5-6</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>для 1 ряда/полуряда</t>
   </si>
   <si>
@@ -217,6 +208,18 @@
   </si>
   <si>
     <t>- точка б</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>3+4</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,7 +703,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -710,7 +715,9 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -721,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -806,7 +813,7 @@
       </c>
       <c r="D10" s="7">
         <f>$D$9*$D$6*$D$7*$D$8</f>
-        <v>64800</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -821,7 +828,7 @@
       </c>
       <c r="D11" s="7">
         <f>$D$8*$D$5*$D$7</f>
-        <v>7.14</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
@@ -864,25 +871,25 @@
       </c>
       <c r="D14" s="6">
         <f>$D$3-0.8</f>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2">
         <f>($D$10*$D$12*'Относительная освещённость'!$H$5)/(1000*$D$13*$D$14*$D$11)</f>
-        <v>844.63865546218472</v>
+        <v>511.63865546218494</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -891,10 +898,10 @@
       <c r="C17" s="17"/>
       <c r="D17" s="2">
         <f>($D$10*$D$12*'Относительная освещённость'!$H$8)/(1000*$D$13*$D$14*$D$11)</f>
-        <v>422.31932773109236</v>
+        <v>353.57142857142861</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +921,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -948,7 +955,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="G2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
@@ -956,55 +963,55 @@
         <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="E3" s="3">
         <f>C3/Лист1!$D$14</f>
-        <v>0.68181818181818177</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>IF(D3/Лист1!$D$14 &lt; 4.4, D3/Лист1!$D$14, "∞")</f>
-        <v>4.3181818181818175</v>
+        <v>0.65625</v>
       </c>
       <c r="G3" s="3">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3">
-        <f>$G$3*4</f>
-        <v>260</v>
+        <f>$G$3*2</f>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="11">
-        <v>5.6</v>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="14">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="D4" s="14">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="E4" s="3">
         <f>C4/Лист1!$D$14</f>
-        <v>2.0454545454545454</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="F4" s="3">
         <f>IF(D4/Лист1!$D$14 &lt; 4.4, D4/Лист1!$D$14, "∞")</f>
-        <v>4.3181818181818175</v>
+        <v>0.65625</v>
       </c>
       <c r="G4" s="3">
-        <v>9.6</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3">
         <f>$G$4*2</f>
-        <v>19.2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
@@ -1012,7 +1019,7 @@
       <c r="B5" s="11"/>
       <c r="H5" s="7">
         <f>SUM(H3:H4)</f>
-        <v>279.2</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1020,55 +1027,55 @@
         <v>29</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" s="15">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D6" s="15">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="E6" s="3">
         <f>C6/Лист1!$D$14</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="F6" s="3" t="str">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="F6" s="3">
         <f>IF(D6/Лист1!$D$14 &lt; 4.4, D6/Лист1!$D$14, "∞")</f>
-        <v>∞</v>
+        <v>1.3125</v>
       </c>
       <c r="G6" s="3">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3">
-        <f>$G$3*2</f>
-        <v>130</v>
+        <f>$G$6*1</f>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="18"/>
       <c r="B7" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" s="14">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="E7" s="3">
         <f>C7/Лист1!$D$14</f>
-        <v>2.0454545454545454</v>
-      </c>
-      <c r="F7" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <f>IF(D7/Лист1!$D$14 &lt; 4.4, D7/Лист1!$D$14, "∞")</f>
-        <v>∞</v>
+        <v>1.3125</v>
       </c>
       <c r="G7" s="3">
-        <v>9.6</v>
+        <v>120</v>
       </c>
       <c r="H7" s="3">
-        <f>$G$4*1</f>
-        <v>9.6</v>
+        <f>$G$7*1</f>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1076,7 +1083,7 @@
       <c r="B8" s="12"/>
       <c r="H8" s="2">
         <f>SUM(H6:H7)</f>
-        <v>139.6</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
